--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -171,6 +171,15 @@
     <x:t>خديجه احمد عبدالحميد احمد سليمان</x:t>
   </x:si>
   <x:si>
+    <x:t>1240051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>دلال بطي حمد بطي سلطان البطي بوطيبان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DALAL B H B BUTAIBAN</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240306</x:t>
   </x:si>
   <x:si>
@@ -205,6 +214,15 @@
   </x:si>
   <x:si>
     <x:t>Zeiad mohamed magdy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساره بطي حمد بطي سلطان البطي بوطيبان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARAH B H B BUTAIBAN</x:t>
   </x:si>
   <x:si>
     <x:t>1240319</x:t>
@@ -731,7 +749,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E67" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E69" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1031,7 +1049,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T67"/>
+  <x:dimension ref="A1:T69"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1039,7 +1057,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.250625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.990625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="50.360625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1630,7 +1648,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.5357455208</x:v>
+        <x:v>45919.0503248032</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1662,7 +1680,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.5365056366</x:v>
+        <x:v>45915.5357455208</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1694,7 +1712,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.5364631134</x:v>
+        <x:v>45915.5365056366</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1726,7 +1744,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4155665162</x:v>
+        <x:v>45915.5364631134</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1758,7 +1776,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4154801736</x:v>
+        <x:v>45908.4155665162</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1786,9 +1804,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45919.0503248032</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1811,16 +1831,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5367799769</x:v>
+        <x:v>45908.4154801736</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1843,16 +1863,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45915.5360443287</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1884,7 +1902,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.5359153935</x:v>
+        <x:v>45915.5367799769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1916,7 +1934,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.5361314815</x:v>
+        <x:v>45915.5360443287</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1948,7 +1966,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.5360836806</x:v>
+        <x:v>45915.5359153935</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1980,7 +1998,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.5164410532</x:v>
+        <x:v>45915.5361314815</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2012,7 +2030,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.665172338</x:v>
+        <x:v>45915.5360836806</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2044,7 +2062,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.5366626157</x:v>
+        <x:v>45909.5164410532</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2076,7 +2094,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45907.665172338</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2108,7 +2126,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45918.4254607986</x:v>
+        <x:v>45915.5366626157</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2140,7 +2158,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2172,7 +2190,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.5367396181</x:v>
+        <x:v>45918.4254607986</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2204,7 +2222,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.5361985764</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2236,7 +2254,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45915.5367396181</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2268,7 +2286,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.5358341435</x:v>
+        <x:v>45915.5361985764</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2300,7 +2318,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2332,7 +2350,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45915.5358341435</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2364,7 +2382,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.535883912</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2396,7 +2414,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2428,7 +2446,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4982068634</x:v>
+        <x:v>45915.535883912</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2460,7 +2478,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.5359737269</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2492,7 +2510,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45918.4867371875</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2524,7 +2542,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.5367050926</x:v>
+        <x:v>45915.5359737269</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2556,7 +2574,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.5356783912</x:v>
+        <x:v>45918.4867371875</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2588,7 +2606,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45915.5356409722</x:v>
+        <x:v>45915.5367050926</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2620,7 +2638,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45909.4955292824</x:v>
+        <x:v>45915.5356783912</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2652,7 +2670,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45915.5356409722</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2684,7 +2702,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45909.4955292824</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2716,7 +2734,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45909.4948143171</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2748,7 +2766,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2780,7 +2798,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45909.4948143171</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2812,7 +2830,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45908.4152844097</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2844,7 +2862,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45915.5362802894</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2876,7 +2894,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4152844097</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2908,7 +2926,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45915.5362802894</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2940,7 +2958,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45915.5361647338</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2972,7 +2990,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3004,7 +3022,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45915.5361647338</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3036,7 +3054,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45915.5360084491</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3068,7 +3086,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45915.5366295139</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3100,7 +3118,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45915.5360084491</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3132,7 +3150,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45915.5366295139</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3164,7 +3182,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3196,7 +3214,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45915.0354261574</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3213,6 +3231,70 @@
       <x:c r="R67" s="2" t="s"/>
       <x:c r="S67" s="2" t="s"/>
       <x:c r="T67" s="2" t="s"/>
+    </x:row>
+    <x:row r="68" spans="1:20">
+      <x:c r="A68" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C68" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D68" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="E68" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F68" s="2" t="s"/>
+      <x:c r="G68" s="2" t="s"/>
+      <x:c r="H68" s="2" t="s"/>
+      <x:c r="I68" s="2" t="s"/>
+      <x:c r="J68" s="2" t="s"/>
+      <x:c r="K68" s="2" t="s"/>
+      <x:c r="L68" s="2" t="s"/>
+      <x:c r="M68" s="2" t="s"/>
+      <x:c r="N68" s="2" t="s"/>
+      <x:c r="O68" s="2" t="s"/>
+      <x:c r="P68" s="2" t="s"/>
+      <x:c r="Q68" s="2" t="s"/>
+      <x:c r="R68" s="2" t="s"/>
+      <x:c r="S68" s="2" t="s"/>
+      <x:c r="T68" s="2" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:20">
+      <x:c r="A69" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C69" s="2" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="D69" s="2" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E69" s="3">
+        <x:v>45915.0354261574</x:v>
+      </x:c>
+      <x:c r="F69" s="2" t="s"/>
+      <x:c r="G69" s="2" t="s"/>
+      <x:c r="H69" s="2" t="s"/>
+      <x:c r="I69" s="2" t="s"/>
+      <x:c r="J69" s="2" t="s"/>
+      <x:c r="K69" s="2" t="s"/>
+      <x:c r="L69" s="2" t="s"/>
+      <x:c r="M69" s="2" t="s"/>
+      <x:c r="N69" s="2" t="s"/>
+      <x:c r="O69" s="2" t="s"/>
+      <x:c r="P69" s="2" t="s"/>
+      <x:c r="Q69" s="2" t="s"/>
+      <x:c r="R69" s="2" t="s"/>
+      <x:c r="S69" s="2" t="s"/>
+      <x:c r="T69" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,57 +78,12 @@
     <x:t>Ahmed mohamed abd elrehim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Abdallah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد مصطفي احسان حسن بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mostafa Ehsan Hassan Bakr</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240192</x:t>
   </x:si>
   <x:si>
     <x:t>اسراء عبدالحميد محمد محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>1240291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اياد محمد السيد عبد الحليم ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eyad Mohamed Elsayed Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اياد محمد عزيز العوضي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eyad Mohammed aziz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اياد محمود مرسي محمد جارحي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eyaad Mahmoud Morsy Mohamed Garhy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240212</x:t>
   </x:si>
   <x:si>
@@ -147,15 +102,6 @@
     <x:t>Jody Emad Fathy Elsayed Selyman</x:t>
   </x:si>
   <x:si>
-    <x:t>1240217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم معتز بالله محمد الحريري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem Moataz-Bellah Elhariry</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240218</x:t>
   </x:si>
   <x:si>
@@ -171,42 +117,6 @@
     <x:t>خديجه احمد عبدالحميد احمد سليمان</x:t>
   </x:si>
   <x:si>
-    <x:t>1240051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>دلال بطي حمد بطي سلطان البطي بوطيبان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DALAL B H B BUTAIBAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رنا ايمن وفائي محمد عيسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana Ayman Wafaey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رودينا  محمود  احمد مصطفى  موسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roudina Mahmoud Ahmed Moustafa Mousa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد احمد محمد المغازى مخلوف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zyad Ahmed mohamed Almoghazy makhlouf</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240315</x:t>
   </x:si>
   <x:si>
@@ -216,15 +126,6 @@
     <x:t>Zeiad mohamed magdy</x:t>
   </x:si>
   <x:si>
-    <x:t>1240068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ساره بطي حمد بطي سلطان البطي بوطيبان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SARAH B H B BUTAIBAN</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240319</x:t>
   </x:si>
   <x:si>
@@ -240,60 +141,6 @@
     <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
   </x:si>
   <x:si>
-    <x:t>1240069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى الحسيني محمد عادل محمد الحسيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Elhoseny mohammed Adel Elhoseny</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الكريم محمد ابوزيد محمد ابوزيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelkareem Mohamed Abouzeid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الله إيهاب كمال الدين عبد السلام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abd Allah Ehab Kamal Eldin Abd Elsalam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالباقي احمد عبدالباقي احمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelbaky Ahmed Abdelbaky Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن حسام الدين مختار حسينى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Hossam Eldin Mokhtar Husseini</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن ياسر محمد السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelarhman Yasser Mohamed Elsayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230333</x:t>
   </x:si>
   <x:si>
@@ -303,15 +150,6 @@
     <x:t>Abdallah Mohamed Kamal Mohamed Al desoky Ali</x:t>
   </x:si>
   <x:si>
-    <x:t>1240332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عصام  محمد  عبد الناصر  عبد النبى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Essam Mohamed Abdel Nasser</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240239</x:t>
   </x:si>
   <x:si>
@@ -321,15 +159,6 @@
     <x:t>Aly Ahmed Nabil El Mazny</x:t>
   </x:si>
   <x:si>
-    <x:t>4250183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمود نجاح مكاوى خلف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240336</x:t>
   </x:si>
   <x:si>
@@ -339,24 +168,6 @@
     <x:t>Ammar ahmed salem amin hassan</x:t>
   </x:si>
   <x:si>
-    <x:t>1240097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر أيمن محمد نجيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar ayman Mohamed neged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر عصام ابوطالب عبدالقوي النجار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Essam Abotaleb Elnaggar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240340</x:t>
   </x:si>
   <x:si>
@@ -366,15 +177,6 @@
     <x:t>Omar Esam Eldeen Yousry Elazab Helal</x:t>
   </x:si>
   <x:si>
-    <x:t>1240342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد السيد كريم سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar mohamed elsayed karim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240112</x:t>
   </x:si>
   <x:si>
@@ -393,15 +195,6 @@
     <x:t>omar mahmoud omar elsayed mohamed humam</x:t>
   </x:si>
   <x:si>
-    <x:t>1240246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عهد احمد محمد ابراهيم احمد عبد القادر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahd Ahmed Mohamed Ibrahim Ahmed AbdelKader</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240403</x:t>
   </x:si>
   <x:si>
@@ -420,51 +213,6 @@
     <x:t>Kareem Hossam Helal Mohamed Helal</x:t>
   </x:si>
   <x:si>
-    <x:t>1240349</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم عاطف عبدالفتاح عبد المقصود شتا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kareem Atef Abdelfatah Sheta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لجين فتحى احمد محمد حنفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lujain Fathy Ahmed Mohamed Hanafi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لوجي جورج ماهر شمعي بطرس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lugi George maher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مازن وليد فريد محمد عبد الغنى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mazen walid farid mohamed abd elghany</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ايهاب صابر عبد العزيز عليوه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed ehab saber abdelaziz aliwa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230101</x:t>
   </x:si>
   <x:si>
@@ -474,15 +222,6 @@
     <x:t>Mohamed Hatem Mohamed Serag Eldin Hassan Shaheen</x:t>
   </x:si>
   <x:si>
-    <x:t>4250192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد حسام محمد عبدالقادر عبدالحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Hossam</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240137</x:t>
   </x:si>
   <x:si>
@@ -528,15 +267,6 @@
     <x:t>Mahmoud Tamer Abdel Maguid Mohamed Negm</x:t>
   </x:si>
   <x:si>
-    <x:t>1240369</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم احمد عادل احمد علي فودة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Ahmed adel Ahmed ali Fouda</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230258</x:t>
   </x:si>
   <x:si>
@@ -555,15 +285,6 @@
     <x:t>Mostafa Ayman ElSayed Ibrahim Shahin</x:t>
   </x:si>
   <x:si>
-    <x:t>1240373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى عمرو ماهر جلال محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Amr Maher Galal Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240269</x:t>
   </x:si>
   <x:si>
@@ -582,24 +303,6 @@
     <x:t>Moaz Mahmoud Ahmad Al-Najjar</x:t>
   </x:si>
   <x:si>
-    <x:t>1240272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مينا ايهاب سمير الفي عطا الله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mina Ehab Samir Alfi Atallah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نورالدين مصطفى احمد محمد عبدالعاطى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour eldeen Mostafa Ahmed Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240276</x:t>
   </x:si>
   <x:si>
@@ -625,15 +328,6 @@
   </x:si>
   <x:si>
     <x:t>Yousef Ahmed Saad Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف ياسر مصطفى محمد البوهي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Yasser Mostafa Mohamed Elbohy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -749,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E69" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1049,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T69"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1057,9 +751,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.990625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="50.360625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1296,11 +990,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45915.5365862616</x:v>
+        <x:v>45909.4856326042</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1323,16 +1015,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.5357123495</x:v>
+        <x:v>45908.414993669</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1355,14 +1047,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45909.4856326042</x:v>
+        <x:v>45908.4153443634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1394,7 +1088,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.5359457176</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1422,11 +1116,9 @@
       <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45915.5357865741</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1449,16 +1141,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.5362361458</x:v>
+        <x:v>45908.4155665162</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1481,16 +1173,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.414993669</x:v>
+        <x:v>45908.4154801736</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1513,16 +1205,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45908.4153443634</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1545,16 +1235,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.5365510069</x:v>
+        <x:v>45907.665172338</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1577,16 +1267,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1609,14 +1299,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1639,16 +1331,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.0503248032</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1671,16 +1363,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.5357455208</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1703,16 +1395,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.5365056366</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1735,16 +1427,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.5364631134</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1767,16 +1459,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4155665162</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1799,16 +1491,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45919.0503248032</x:v>
+        <x:v>45909.4955292824</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1831,16 +1523,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4154801736</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1863,14 +1555,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45909.4948143171</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1902,7 +1596,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.5367799769</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1934,7 +1628,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.5360443287</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1966,7 +1660,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.5359153935</x:v>
+        <x:v>45908.4152844097</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1998,7 +1692,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5361314815</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2030,7 +1724,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5360836806</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2062,7 +1756,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.5164410532</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2094,7 +1788,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.665172338</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2126,7 +1820,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.5366626157</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2158,7 +1852,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2190,7 +1884,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45918.4254607986</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2207,1094 +1901,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45908.4151978009</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45915.5367396181</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45915.5361985764</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45908.4149797107</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45915.5358341435</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45908.4149893519</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45908.4152319444</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45915.535883912</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45908.4150033565</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45909.4982068634</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45915.5359737269</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45918.4867371875</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45915.5367050926</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45915.5356783912</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20">
-      <x:c r="A50" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="E50" s="3">
-        <x:v>45915.5356409722</x:v>
-      </x:c>
-      <x:c r="F50" s="2" t="s"/>
-      <x:c r="G50" s="2" t="s"/>
-      <x:c r="H50" s="2" t="s"/>
-      <x:c r="I50" s="2" t="s"/>
-      <x:c r="J50" s="2" t="s"/>
-      <x:c r="K50" s="2" t="s"/>
-      <x:c r="L50" s="2" t="s"/>
-      <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="2" t="s"/>
-      <x:c r="O50" s="2" t="s"/>
-      <x:c r="P50" s="2" t="s"/>
-      <x:c r="Q50" s="2" t="s"/>
-      <x:c r="R50" s="2" t="s"/>
-      <x:c r="S50" s="2" t="s"/>
-      <x:c r="T50" s="2" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:20">
-      <x:c r="A51" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B51" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="C51" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="E51" s="3">
-        <x:v>45909.4955292824</x:v>
-      </x:c>
-      <x:c r="F51" s="2" t="s"/>
-      <x:c r="G51" s="2" t="s"/>
-      <x:c r="H51" s="2" t="s"/>
-      <x:c r="I51" s="2" t="s"/>
-      <x:c r="J51" s="2" t="s"/>
-      <x:c r="K51" s="2" t="s"/>
-      <x:c r="L51" s="2" t="s"/>
-      <x:c r="M51" s="2" t="s"/>
-      <x:c r="N51" s="2" t="s"/>
-      <x:c r="O51" s="2" t="s"/>
-      <x:c r="P51" s="2" t="s"/>
-      <x:c r="Q51" s="2" t="s"/>
-      <x:c r="R51" s="2" t="s"/>
-      <x:c r="S51" s="2" t="s"/>
-      <x:c r="T51" s="2" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:20">
-      <x:c r="A52" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="D52" s="2" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="E52" s="3">
-        <x:v>45918.5069047454</x:v>
-      </x:c>
-      <x:c r="F52" s="2" t="s"/>
-      <x:c r="G52" s="2" t="s"/>
-      <x:c r="H52" s="2" t="s"/>
-      <x:c r="I52" s="2" t="s"/>
-      <x:c r="J52" s="2" t="s"/>
-      <x:c r="K52" s="2" t="s"/>
-      <x:c r="L52" s="2" t="s"/>
-      <x:c r="M52" s="2" t="s"/>
-      <x:c r="N52" s="2" t="s"/>
-      <x:c r="O52" s="2" t="s"/>
-      <x:c r="P52" s="2" t="s"/>
-      <x:c r="Q52" s="2" t="s"/>
-      <x:c r="R52" s="2" t="s"/>
-      <x:c r="S52" s="2" t="s"/>
-      <x:c r="T52" s="2" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:20">
-      <x:c r="A53" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C53" s="2" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="D53" s="2" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="E53" s="3">
-        <x:v>45908.4155906597</x:v>
-      </x:c>
-      <x:c r="F53" s="2" t="s"/>
-      <x:c r="G53" s="2" t="s"/>
-      <x:c r="H53" s="2" t="s"/>
-      <x:c r="I53" s="2" t="s"/>
-      <x:c r="J53" s="2" t="s"/>
-      <x:c r="K53" s="2" t="s"/>
-      <x:c r="L53" s="2" t="s"/>
-      <x:c r="M53" s="2" t="s"/>
-      <x:c r="N53" s="2" t="s"/>
-      <x:c r="O53" s="2" t="s"/>
-      <x:c r="P53" s="2" t="s"/>
-      <x:c r="Q53" s="2" t="s"/>
-      <x:c r="R53" s="2" t="s"/>
-      <x:c r="S53" s="2" t="s"/>
-      <x:c r="T53" s="2" t="s"/>
-    </x:row>
-    <x:row r="54" spans="1:20">
-      <x:c r="A54" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B54" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="C54" s="2" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D54" s="2" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="E54" s="3">
-        <x:v>45909.4948143171</x:v>
-      </x:c>
-      <x:c r="F54" s="2" t="s"/>
-      <x:c r="G54" s="2" t="s"/>
-      <x:c r="H54" s="2" t="s"/>
-      <x:c r="I54" s="2" t="s"/>
-      <x:c r="J54" s="2" t="s"/>
-      <x:c r="K54" s="2" t="s"/>
-      <x:c r="L54" s="2" t="s"/>
-      <x:c r="M54" s="2" t="s"/>
-      <x:c r="N54" s="2" t="s"/>
-      <x:c r="O54" s="2" t="s"/>
-      <x:c r="P54" s="2" t="s"/>
-      <x:c r="Q54" s="2" t="s"/>
-      <x:c r="R54" s="2" t="s"/>
-      <x:c r="S54" s="2" t="s"/>
-      <x:c r="T54" s="2" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:20">
-      <x:c r="A55" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B55" s="2" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="C55" s="2" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="D55" s="2" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="E55" s="3">
-        <x:v>45908.4149094097</x:v>
-      </x:c>
-      <x:c r="F55" s="2" t="s"/>
-      <x:c r="G55" s="2" t="s"/>
-      <x:c r="H55" s="2" t="s"/>
-      <x:c r="I55" s="2" t="s"/>
-      <x:c r="J55" s="2" t="s"/>
-      <x:c r="K55" s="2" t="s"/>
-      <x:c r="L55" s="2" t="s"/>
-      <x:c r="M55" s="2" t="s"/>
-      <x:c r="N55" s="2" t="s"/>
-      <x:c r="O55" s="2" t="s"/>
-      <x:c r="P55" s="2" t="s"/>
-      <x:c r="Q55" s="2" t="s"/>
-      <x:c r="R55" s="2" t="s"/>
-      <x:c r="S55" s="2" t="s"/>
-      <x:c r="T55" s="2" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:20">
-      <x:c r="A56" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B56" s="2" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="C56" s="2" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="D56" s="2" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="E56" s="3">
-        <x:v>45907.6655889236</x:v>
-      </x:c>
-      <x:c r="F56" s="2" t="s"/>
-      <x:c r="G56" s="2" t="s"/>
-      <x:c r="H56" s="2" t="s"/>
-      <x:c r="I56" s="2" t="s"/>
-      <x:c r="J56" s="2" t="s"/>
-      <x:c r="K56" s="2" t="s"/>
-      <x:c r="L56" s="2" t="s"/>
-      <x:c r="M56" s="2" t="s"/>
-      <x:c r="N56" s="2" t="s"/>
-      <x:c r="O56" s="2" t="s"/>
-      <x:c r="P56" s="2" t="s"/>
-      <x:c r="Q56" s="2" t="s"/>
-      <x:c r="R56" s="2" t="s"/>
-      <x:c r="S56" s="2" t="s"/>
-      <x:c r="T56" s="2" t="s"/>
-    </x:row>
-    <x:row r="57" spans="1:20">
-      <x:c r="A57" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B57" s="2" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="C57" s="2" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="D57" s="2" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="E57" s="3">
-        <x:v>45908.4152844097</x:v>
-      </x:c>
-      <x:c r="F57" s="2" t="s"/>
-      <x:c r="G57" s="2" t="s"/>
-      <x:c r="H57" s="2" t="s"/>
-      <x:c r="I57" s="2" t="s"/>
-      <x:c r="J57" s="2" t="s"/>
-      <x:c r="K57" s="2" t="s"/>
-      <x:c r="L57" s="2" t="s"/>
-      <x:c r="M57" s="2" t="s"/>
-      <x:c r="N57" s="2" t="s"/>
-      <x:c r="O57" s="2" t="s"/>
-      <x:c r="P57" s="2" t="s"/>
-      <x:c r="Q57" s="2" t="s"/>
-      <x:c r="R57" s="2" t="s"/>
-      <x:c r="S57" s="2" t="s"/>
-      <x:c r="T57" s="2" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:20">
-      <x:c r="A58" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B58" s="2" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C58" s="2" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="D58" s="2" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="E58" s="3">
-        <x:v>45915.5362802894</x:v>
-      </x:c>
-      <x:c r="F58" s="2" t="s"/>
-      <x:c r="G58" s="2" t="s"/>
-      <x:c r="H58" s="2" t="s"/>
-      <x:c r="I58" s="2" t="s"/>
-      <x:c r="J58" s="2" t="s"/>
-      <x:c r="K58" s="2" t="s"/>
-      <x:c r="L58" s="2" t="s"/>
-      <x:c r="M58" s="2" t="s"/>
-      <x:c r="N58" s="2" t="s"/>
-      <x:c r="O58" s="2" t="s"/>
-      <x:c r="P58" s="2" t="s"/>
-      <x:c r="Q58" s="2" t="s"/>
-      <x:c r="R58" s="2" t="s"/>
-      <x:c r="S58" s="2" t="s"/>
-      <x:c r="T58" s="2" t="s"/>
-    </x:row>
-    <x:row r="59" spans="1:20">
-      <x:c r="A59" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B59" s="2" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="C59" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D59" s="2" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="E59" s="3">
-        <x:v>45907.666199456</x:v>
-      </x:c>
-      <x:c r="F59" s="2" t="s"/>
-      <x:c r="G59" s="2" t="s"/>
-      <x:c r="H59" s="2" t="s"/>
-      <x:c r="I59" s="2" t="s"/>
-      <x:c r="J59" s="2" t="s"/>
-      <x:c r="K59" s="2" t="s"/>
-      <x:c r="L59" s="2" t="s"/>
-      <x:c r="M59" s="2" t="s"/>
-      <x:c r="N59" s="2" t="s"/>
-      <x:c r="O59" s="2" t="s"/>
-      <x:c r="P59" s="2" t="s"/>
-      <x:c r="Q59" s="2" t="s"/>
-      <x:c r="R59" s="2" t="s"/>
-      <x:c r="S59" s="2" t="s"/>
-      <x:c r="T59" s="2" t="s"/>
-    </x:row>
-    <x:row r="60" spans="1:20">
-      <x:c r="A60" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B60" s="2" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="C60" s="2" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="D60" s="2" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="E60" s="3">
-        <x:v>45908.4154908912</x:v>
-      </x:c>
-      <x:c r="F60" s="2" t="s"/>
-      <x:c r="G60" s="2" t="s"/>
-      <x:c r="H60" s="2" t="s"/>
-      <x:c r="I60" s="2" t="s"/>
-      <x:c r="J60" s="2" t="s"/>
-      <x:c r="K60" s="2" t="s"/>
-      <x:c r="L60" s="2" t="s"/>
-      <x:c r="M60" s="2" t="s"/>
-      <x:c r="N60" s="2" t="s"/>
-      <x:c r="O60" s="2" t="s"/>
-      <x:c r="P60" s="2" t="s"/>
-      <x:c r="Q60" s="2" t="s"/>
-      <x:c r="R60" s="2" t="s"/>
-      <x:c r="S60" s="2" t="s"/>
-      <x:c r="T60" s="2" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:20">
-      <x:c r="A61" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B61" s="2" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C61" s="2" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="D61" s="2" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="E61" s="3">
-        <x:v>45915.5361647338</x:v>
-      </x:c>
-      <x:c r="F61" s="2" t="s"/>
-      <x:c r="G61" s="2" t="s"/>
-      <x:c r="H61" s="2" t="s"/>
-      <x:c r="I61" s="2" t="s"/>
-      <x:c r="J61" s="2" t="s"/>
-      <x:c r="K61" s="2" t="s"/>
-      <x:c r="L61" s="2" t="s"/>
-      <x:c r="M61" s="2" t="s"/>
-      <x:c r="N61" s="2" t="s"/>
-      <x:c r="O61" s="2" t="s"/>
-      <x:c r="P61" s="2" t="s"/>
-      <x:c r="Q61" s="2" t="s"/>
-      <x:c r="R61" s="2" t="s"/>
-      <x:c r="S61" s="2" t="s"/>
-      <x:c r="T61" s="2" t="s"/>
-    </x:row>
-    <x:row r="62" spans="1:20">
-      <x:c r="A62" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B62" s="2" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="C62" s="2" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="D62" s="2" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="E62" s="3">
-        <x:v>45908.4149523495</x:v>
-      </x:c>
-      <x:c r="F62" s="2" t="s"/>
-      <x:c r="G62" s="2" t="s"/>
-      <x:c r="H62" s="2" t="s"/>
-      <x:c r="I62" s="2" t="s"/>
-      <x:c r="J62" s="2" t="s"/>
-      <x:c r="K62" s="2" t="s"/>
-      <x:c r="L62" s="2" t="s"/>
-      <x:c r="M62" s="2" t="s"/>
-      <x:c r="N62" s="2" t="s"/>
-      <x:c r="O62" s="2" t="s"/>
-      <x:c r="P62" s="2" t="s"/>
-      <x:c r="Q62" s="2" t="s"/>
-      <x:c r="R62" s="2" t="s"/>
-      <x:c r="S62" s="2" t="s"/>
-      <x:c r="T62" s="2" t="s"/>
-    </x:row>
-    <x:row r="63" spans="1:20">
-      <x:c r="A63" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B63" s="2" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="C63" s="2" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="D63" s="2" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="E63" s="3">
-        <x:v>45908.4147947569</x:v>
-      </x:c>
-      <x:c r="F63" s="2" t="s"/>
-      <x:c r="G63" s="2" t="s"/>
-      <x:c r="H63" s="2" t="s"/>
-      <x:c r="I63" s="2" t="s"/>
-      <x:c r="J63" s="2" t="s"/>
-      <x:c r="K63" s="2" t="s"/>
-      <x:c r="L63" s="2" t="s"/>
-      <x:c r="M63" s="2" t="s"/>
-      <x:c r="N63" s="2" t="s"/>
-      <x:c r="O63" s="2" t="s"/>
-      <x:c r="P63" s="2" t="s"/>
-      <x:c r="Q63" s="2" t="s"/>
-      <x:c r="R63" s="2" t="s"/>
-      <x:c r="S63" s="2" t="s"/>
-      <x:c r="T63" s="2" t="s"/>
-    </x:row>
-    <x:row r="64" spans="1:20">
-      <x:c r="A64" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B64" s="2" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="C64" s="2" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="D64" s="2" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="E64" s="3">
-        <x:v>45915.5360084491</x:v>
-      </x:c>
-      <x:c r="F64" s="2" t="s"/>
-      <x:c r="G64" s="2" t="s"/>
-      <x:c r="H64" s="2" t="s"/>
-      <x:c r="I64" s="2" t="s"/>
-      <x:c r="J64" s="2" t="s"/>
-      <x:c r="K64" s="2" t="s"/>
-      <x:c r="L64" s="2" t="s"/>
-      <x:c r="M64" s="2" t="s"/>
-      <x:c r="N64" s="2" t="s"/>
-      <x:c r="O64" s="2" t="s"/>
-      <x:c r="P64" s="2" t="s"/>
-      <x:c r="Q64" s="2" t="s"/>
-      <x:c r="R64" s="2" t="s"/>
-      <x:c r="S64" s="2" t="s"/>
-      <x:c r="T64" s="2" t="s"/>
-    </x:row>
-    <x:row r="65" spans="1:20">
-      <x:c r="A65" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B65" s="2" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="C65" s="2" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="D65" s="2" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="E65" s="3">
-        <x:v>45915.5366295139</x:v>
-      </x:c>
-      <x:c r="F65" s="2" t="s"/>
-      <x:c r="G65" s="2" t="s"/>
-      <x:c r="H65" s="2" t="s"/>
-      <x:c r="I65" s="2" t="s"/>
-      <x:c r="J65" s="2" t="s"/>
-      <x:c r="K65" s="2" t="s"/>
-      <x:c r="L65" s="2" t="s"/>
-      <x:c r="M65" s="2" t="s"/>
-      <x:c r="N65" s="2" t="s"/>
-      <x:c r="O65" s="2" t="s"/>
-      <x:c r="P65" s="2" t="s"/>
-      <x:c r="Q65" s="2" t="s"/>
-      <x:c r="R65" s="2" t="s"/>
-      <x:c r="S65" s="2" t="s"/>
-      <x:c r="T65" s="2" t="s"/>
-    </x:row>
-    <x:row r="66" spans="1:20">
-      <x:c r="A66" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B66" s="2" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="C66" s="2" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="D66" s="2" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="E66" s="3">
-        <x:v>45908.4149983796</x:v>
-      </x:c>
-      <x:c r="F66" s="2" t="s"/>
-      <x:c r="G66" s="2" t="s"/>
-      <x:c r="H66" s="2" t="s"/>
-      <x:c r="I66" s="2" t="s"/>
-      <x:c r="J66" s="2" t="s"/>
-      <x:c r="K66" s="2" t="s"/>
-      <x:c r="L66" s="2" t="s"/>
-      <x:c r="M66" s="2" t="s"/>
-      <x:c r="N66" s="2" t="s"/>
-      <x:c r="O66" s="2" t="s"/>
-      <x:c r="P66" s="2" t="s"/>
-      <x:c r="Q66" s="2" t="s"/>
-      <x:c r="R66" s="2" t="s"/>
-      <x:c r="S66" s="2" t="s"/>
-      <x:c r="T66" s="2" t="s"/>
-    </x:row>
-    <x:row r="67" spans="1:20">
-      <x:c r="A67" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B67" s="2" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="C67" s="2" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="D67" s="2" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="E67" s="3">
-        <x:v>45908.4151152778</x:v>
-      </x:c>
-      <x:c r="F67" s="2" t="s"/>
-      <x:c r="G67" s="2" t="s"/>
-      <x:c r="H67" s="2" t="s"/>
-      <x:c r="I67" s="2" t="s"/>
-      <x:c r="J67" s="2" t="s"/>
-      <x:c r="K67" s="2" t="s"/>
-      <x:c r="L67" s="2" t="s"/>
-      <x:c r="M67" s="2" t="s"/>
-      <x:c r="N67" s="2" t="s"/>
-      <x:c r="O67" s="2" t="s"/>
-      <x:c r="P67" s="2" t="s"/>
-      <x:c r="Q67" s="2" t="s"/>
-      <x:c r="R67" s="2" t="s"/>
-      <x:c r="S67" s="2" t="s"/>
-      <x:c r="T67" s="2" t="s"/>
-    </x:row>
-    <x:row r="68" spans="1:20">
-      <x:c r="A68" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B68" s="2" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="C68" s="2" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="D68" s="2" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="E68" s="3">
-        <x:v>45908.4153125</x:v>
-      </x:c>
-      <x:c r="F68" s="2" t="s"/>
-      <x:c r="G68" s="2" t="s"/>
-      <x:c r="H68" s="2" t="s"/>
-      <x:c r="I68" s="2" t="s"/>
-      <x:c r="J68" s="2" t="s"/>
-      <x:c r="K68" s="2" t="s"/>
-      <x:c r="L68" s="2" t="s"/>
-      <x:c r="M68" s="2" t="s"/>
-      <x:c r="N68" s="2" t="s"/>
-      <x:c r="O68" s="2" t="s"/>
-      <x:c r="P68" s="2" t="s"/>
-      <x:c r="Q68" s="2" t="s"/>
-      <x:c r="R68" s="2" t="s"/>
-      <x:c r="S68" s="2" t="s"/>
-      <x:c r="T68" s="2" t="s"/>
-    </x:row>
-    <x:row r="69" spans="1:20">
-      <x:c r="A69" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B69" s="2" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="C69" s="2" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="D69" s="2" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="E69" s="3">
-        <x:v>45915.0354261574</x:v>
-      </x:c>
-      <x:c r="F69" s="2" t="s"/>
-      <x:c r="G69" s="2" t="s"/>
-      <x:c r="H69" s="2" t="s"/>
-      <x:c r="I69" s="2" t="s"/>
-      <x:c r="J69" s="2" t="s"/>
-      <x:c r="K69" s="2" t="s"/>
-      <x:c r="L69" s="2" t="s"/>
-      <x:c r="M69" s="2" t="s"/>
-      <x:c r="N69" s="2" t="s"/>
-      <x:c r="O69" s="2" t="s"/>
-      <x:c r="P69" s="2" t="s"/>
-      <x:c r="Q69" s="2" t="s"/>
-      <x:c r="R69" s="2" t="s"/>
-      <x:c r="S69" s="2" t="s"/>
-      <x:c r="T69" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -82,6 +82,15 @@
   </x:si>
   <x:si>
     <x:t>اسراء عبدالحميد محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بثينه احمد محمد جندى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bothaina Ahmed Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240212</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -753,7 +762,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="50.360625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1024,7 +1033,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.414993669</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1056,7 +1065,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4153443634</x:v>
+        <x:v>45908.414993669</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1088,7 +1097,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45908.4153443634</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1116,9 +1125,11 @@
       <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1141,16 +1152,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45908.4155665162</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1182,7 +1191,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4154801736</x:v>
+        <x:v>45908.4155665162</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1210,9 +1219,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45908.4154801736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1235,16 +1246,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.665172338</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1276,7 +1285,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45907.665172338</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1308,7 +1317,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1340,7 +1349,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1372,7 +1381,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1404,7 +1413,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1436,7 +1445,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1468,7 +1477,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4982068634</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1500,7 +1509,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4955292824</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1532,7 +1541,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45909.4955292824</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1564,7 +1573,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4948143171</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1596,7 +1605,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.4948143171</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1628,7 +1637,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1660,7 +1669,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4152844097</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1692,7 +1701,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4152844097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1724,7 +1733,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1756,7 +1765,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1788,7 +1797,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1820,7 +1829,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1852,7 +1861,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1884,7 +1893,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1901,6 +1910,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Moaz Mahmoud Ahmad Al-Najjar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هيثم عبدالله امير الجيش محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Haytham Abdullah Amir El Gesh Mohamad</x:t>
   </x:si>
   <x:si>
     <x:t>1240276</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1861,7 +1870,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1942,6 +1951,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله عادل احمد حسن ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Adel Ahmed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230333</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1294,7 +1303,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665172338</x:v>
+        <x:v>45923.4412577199</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1326,7 +1335,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45907.665172338</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1358,7 +1367,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1390,7 +1399,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1422,7 +1431,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1454,7 +1463,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1486,7 +1495,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1518,7 +1527,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4982068634</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1550,7 +1559,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4955292824</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1582,7 +1591,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45909.4955292824</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1614,7 +1623,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4948143171</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1646,7 +1655,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.4948143171</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1678,7 +1687,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1710,7 +1719,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4152844097</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1742,7 +1751,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4152844097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1774,7 +1783,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1806,7 +1815,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1838,7 +1847,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1870,7 +1879,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1902,7 +1911,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1983,6 +1992,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -1303,7 +1303,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45923.4412577199</x:v>
+        <x:v>45927.752509375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>

--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -84,6 +84,15 @@
     <x:t>اسراء عبدالحميد محمد محمد</x:t>
   </x:si>
   <x:si>
+    <x:t>1240027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>السيد محمد السيد حسن بركات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>El-Sayed Mohamed El-Sayed Hassan Barakat</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250168</x:t>
   </x:si>
   <x:si>
@@ -126,6 +135,15 @@
     <x:t>خديجه احمد عبدالحميد احمد سليمان</x:t>
   </x:si>
   <x:si>
+    <x:t>4250173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد سعد محمد موسى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Saad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240315</x:t>
   </x:si>
   <x:si>
@@ -229,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Kareem Hossam Helal Mohamed Helal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايهاب صابر عبد العزيز عليوه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed ehab saber abdelaziz aliwa</x:t>
   </x:si>
   <x:si>
     <x:t>1230101</x:t>
@@ -470,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1051,7 +1078,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45919.9748653935</x:v>
+        <x:v>45929.0362312153</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1083,7 +1110,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.414993669</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1115,7 +1142,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4153443634</x:v>
+        <x:v>45908.414993669</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1147,7 +1174,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45908.4153443634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1175,9 +1202,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1200,16 +1229,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45908.4155665162</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1241,7 +1268,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4154801736</x:v>
+        <x:v>45928.8694354167</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1269,9 +1296,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45908.4155665162</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1294,16 +1323,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.752509375</x:v>
+        <x:v>45908.4154801736</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1326,16 +1355,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.665172338</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1367,7 +1394,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45927.752509375</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1399,7 +1426,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45907.665172338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1431,7 +1458,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1463,7 +1490,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1495,7 +1522,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1527,7 +1554,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1559,7 +1586,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4982068634</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1591,7 +1618,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4955292824</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1623,7 +1650,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1655,7 +1682,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4948143171</x:v>
+        <x:v>45929.0394918981</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1687,7 +1714,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.4955292824</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1719,7 +1746,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1751,7 +1778,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4152844097</x:v>
+        <x:v>45909.4948143171</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1783,7 +1810,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1815,7 +1842,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1847,7 +1874,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45908.4152844097</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1879,7 +1906,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1911,7 +1938,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1943,7 +1970,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1975,7 +2002,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,7 +2034,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2024,6 +2051,102 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45908.4149983796</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45908.4151152778</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -133,6 +133,15 @@
   </x:si>
   <x:si>
     <x:t>خديجه احمد عبدالحميد احمد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد ايمن كمال محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Ayman Kamal Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4250173</x:t>
@@ -497,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1268,7 +1277,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45928.8694354167</x:v>
+        <x:v>45930.4504799421</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4155665162</x:v>
+        <x:v>45928.8694354167</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4154801736</x:v>
+        <x:v>45908.4155665162</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1360,9 +1369,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45908.4154801736</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1385,16 +1396,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45927.752509375</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1426,7 +1435,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.665172338</x:v>
+        <x:v>45927.752509375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1458,7 +1467,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45907.665172338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1490,7 +1499,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1522,7 +1531,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1554,7 +1563,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1586,7 +1595,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1618,7 +1627,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1650,7 +1659,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4982068634</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1682,7 +1691,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45929.0394918981</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1714,7 +1723,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4955292824</x:v>
+        <x:v>45929.0394918981</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1746,7 +1755,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45909.4955292824</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1778,7 +1787,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4948143171</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1810,7 +1819,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.4948143171</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1842,7 +1851,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1874,7 +1883,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4152844097</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1906,7 +1915,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4152844097</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1938,7 +1947,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1970,7 +1979,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2002,7 +2011,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2034,7 +2043,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2066,7 +2075,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2098,7 +2107,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2130,7 +2139,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2147,6 +2156,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed helmy Mohamed helmy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد علي زاهر موسي المتيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Ali Zaher Mousa Elmeteni</x:t>
   </x:si>
   <x:si>
     <x:t>1240361</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1819,7 +1828,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4948143171</x:v>
+        <x:v>45931.498950463</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1851,7 +1860,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.4948143171</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1883,7 +1892,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1915,7 +1924,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4152844097</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1947,7 +1956,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4152844097</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1979,7 +1988,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2011,7 +2020,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2043,7 +2052,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2075,7 +2084,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2107,7 +2116,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2139,7 +2148,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2171,7 +2180,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2188,6 +2197,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -153,6 +153,15 @@
     <x:t>Ziad Saad</x:t>
   </x:si>
   <x:si>
+    <x:t>1240067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد علاء كمال احمد عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zyad Alaa Kamal Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240315</x:t>
   </x:si>
   <x:si>
@@ -346,6 +355,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Ayman ElSayed Ibrahim Shahin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمود جمال الدين محمود عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa  Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240269</x:t>
@@ -515,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -823,7 +841,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.520625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="34.590625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="50.360625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1350,7 +1368,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4155665162</x:v>
+        <x:v>45935.4922486921</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1382,7 +1400,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4154801736</x:v>
+        <x:v>45908.4155665162</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1410,9 +1428,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45908.4154801736</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1435,16 +1455,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45927.752509375</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1476,7 +1494,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665172338</x:v>
+        <x:v>45927.752509375</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1508,7 +1526,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45907.665172338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1540,7 +1558,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1572,7 +1590,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1604,7 +1622,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1636,7 +1654,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1668,7 +1686,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4150033565</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1700,7 +1718,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4982068634</x:v>
+        <x:v>45908.4150033565</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1732,7 +1750,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45929.0394918981</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1764,7 +1782,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4955292824</x:v>
+        <x:v>45929.0394918981</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1796,7 +1814,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45909.4955292824</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1828,7 +1846,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45931.498950463</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1860,7 +1878,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4948143171</x:v>
+        <x:v>45931.498950463</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1892,7 +1910,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45909.4948143171</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1924,7 +1942,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1956,7 +1974,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4152844097</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1988,7 +2006,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4152844097</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2020,7 +2038,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2052,7 +2070,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4149523495</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2084,7 +2102,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45935.4805002315</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2116,7 +2134,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45908.4149523495</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2148,7 +2166,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2180,7 +2198,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2212,7 +2230,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2229,6 +2247,70 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45908.4151152778</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EMCS002_Tutorial-35845.xlsx
+++ b/downloaded_files/EMCS002_Tutorial-35845.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -82,6 +82,9 @@
   </x:si>
   <x:si>
     <x:t>اسراء عبدالحميد محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esraa Abdelhameed Mohamed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240027</x:t>
@@ -1080,7 +1083,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="E7" s="3">
         <x:v>45909.4856326042</x:v>
       </x:c>
@@ -1105,13 +1110,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:v>45929.0362312153</x:v>
@@ -1137,13 +1142,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45919.9748653935</x:v>
@@ -1169,13 +1174,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45908.414993669</x:v>
@@ -1201,13 +1206,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45908.4153443634</x:v>
@@ -1233,13 +1238,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45908.4153628819</x:v>
@@ -1265,10 +1270,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
@@ -1295,13 +1300,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45930.4504799421</x:v>
@@ -1327,13 +1332,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45928.8694354167</x:v>
@@ -1359,13 +1364,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45935.4922486921</x:v>
@@ -1391,13 +1396,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45908.4155665162</x:v>
@@ -1423,13 +1428,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45908.4154801736</x:v>
@@ -1455,10 +1460,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
@@ -1485,13 +1490,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45927.752509375</x:v>
@@ -1517,13 +1522,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.665172338</x:v>
@@ -1549,13 +1554,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45908.4149502315</x:v>
@@ -1581,13 +1586,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45908.4151978009</x:v>
@@ -1613,13 +1618,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45908.4149797107</x:v>
@@ -1645,13 +1650,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45908.4149893519</x:v>
@@ -1677,13 +1682,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45908.4152319444</x:v>
@@ -1709,13 +1714,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45908.4150033565</x:v>
@@ -1741,13 +1746,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45909.4982068634</x:v>
@@ -1773,13 +1778,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45929.0394918981</x:v>
@@ -1805,13 +1810,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45909.4955292824</x:v>
@@ -1837,13 +1842,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45908.4155906597</x:v>
@@ -1869,13 +1874,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45931.498950463</x:v>
@@ -1901,13 +1906,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45909.4948143171</x:v>
@@ -1933,13 +1938,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45908.4149094097</x:v>
@@ -1965,13 +1970,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45907.6655889236</x:v>
@@ -1997,13 +2002,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45908.4152844097</x:v>
@@ -2029,13 +2034,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.666199456</x:v>
@@ -2061,13 +2066,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45908.4154908912</x:v>
@@ -2093,13 +2098,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45935.4805002315</x:v>
@@ -2125,13 +2130,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45908.4149523495</x:v>
@@ -2157,13 +2162,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45908.4147947569</x:v>
@@ -2189,13 +2194,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45921.9125798611</x:v>
@@ -2221,13 +2226,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45908.4149983796</x:v>
@@ -2253,13 +2258,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45908.4151152778</x:v>
@@ -2285,13 +2290,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45908.4153125</x:v>
